--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.426047666666667</v>
+        <v>1.164414</v>
       </c>
       <c r="H2">
-        <v>4.278143</v>
+        <v>3.493242</v>
       </c>
       <c r="I2">
-        <v>0.1675089570541241</v>
+        <v>0.2111338079173259</v>
       </c>
       <c r="J2">
-        <v>0.1809685410370733</v>
+        <v>0.2149356714351638</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.067773</v>
+        <v>0.006995333333333333</v>
       </c>
       <c r="N2">
-        <v>3.203319</v>
+        <v>0.020986</v>
       </c>
       <c r="O2">
-        <v>0.09910750252307587</v>
+        <v>0.003071634989180631</v>
       </c>
       <c r="P2">
-        <v>0.09910750252307587</v>
+        <v>0.003071634989180632</v>
       </c>
       <c r="Q2">
-        <v>1.522695195179667</v>
+        <v>0.008145464068000001</v>
       </c>
       <c r="R2">
-        <v>13.704256756617</v>
+        <v>0.07330917661200001</v>
       </c>
       <c r="S2">
-        <v>0.01660139438387942</v>
+        <v>0.0006485259917978007</v>
       </c>
       <c r="T2">
-        <v>0.0179353401374291</v>
+        <v>0.0006602039288032812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.426047666666667</v>
+        <v>1.164414</v>
       </c>
       <c r="H3">
-        <v>4.278143</v>
+        <v>3.493242</v>
       </c>
       <c r="I3">
-        <v>0.1675089570541241</v>
+        <v>0.2111338079173259</v>
       </c>
       <c r="J3">
-        <v>0.1809685410370733</v>
+        <v>0.2149356714351638</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>9.706113666666665</v>
+        <v>1.994843666666667</v>
       </c>
       <c r="N3">
-        <v>29.118341</v>
+        <v>5.984531</v>
       </c>
       <c r="O3">
-        <v>0.900892497476924</v>
+        <v>0.8759313262859122</v>
       </c>
       <c r="P3">
-        <v>0.9008924974769242</v>
+        <v>0.8759313262859124</v>
       </c>
       <c r="Q3">
-        <v>13.84138074675144</v>
+        <v>2.322823893278001</v>
       </c>
       <c r="R3">
-        <v>124.572426720763</v>
+        <v>20.905415039502</v>
       </c>
       <c r="S3">
-        <v>0.1509075626702447</v>
+        <v>0.1849387163928183</v>
       </c>
       <c r="T3">
-        <v>0.1630332008996442</v>
+        <v>0.1882688877463561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.141562333333333</v>
+        <v>1.164414</v>
       </c>
       <c r="H4">
-        <v>6.424687</v>
+        <v>3.493242</v>
       </c>
       <c r="I4">
-        <v>0.2515560182932617</v>
+        <v>0.2111338079173259</v>
       </c>
       <c r="J4">
-        <v>0.27176890370655</v>
+        <v>0.2149356714351638</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.067773</v>
+        <v>0.2755583333333333</v>
       </c>
       <c r="N4">
-        <v>3.203319</v>
+        <v>0.826675</v>
       </c>
       <c r="O4">
-        <v>0.09910750252307587</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="P4">
-        <v>0.09910750252307587</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="Q4">
-        <v>2.286702437350334</v>
+        <v>0.32086398115</v>
       </c>
       <c r="R4">
-        <v>20.580321936153</v>
+        <v>2.88777583035</v>
       </c>
       <c r="S4">
-        <v>0.02493108871769436</v>
+        <v>0.02554656553270976</v>
       </c>
       <c r="T4">
-        <v>0.02693433730979047</v>
+        <v>0.02600657976000441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>6.424687</v>
       </c>
       <c r="I5">
-        <v>0.2515560182932617</v>
+        <v>0.3883122414613532</v>
       </c>
       <c r="J5">
-        <v>0.27176890370655</v>
+        <v>0.395304537763421</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.706113666666665</v>
+        <v>0.006995333333333333</v>
       </c>
       <c r="N5">
-        <v>29.118341</v>
+        <v>0.020986</v>
       </c>
       <c r="O5">
-        <v>0.900892497476924</v>
+        <v>0.003071634989180631</v>
       </c>
       <c r="P5">
-        <v>0.9008924974769242</v>
+        <v>0.003071634989180632</v>
       </c>
       <c r="Q5">
-        <v>20.78624743158522</v>
+        <v>0.01498094237577778</v>
       </c>
       <c r="R5">
-        <v>187.076226884267</v>
+        <v>0.134828481382</v>
       </c>
       <c r="S5">
-        <v>0.2266249295755673</v>
+        <v>0.001192753467599851</v>
       </c>
       <c r="T5">
-        <v>0.2448345663967596</v>
+        <v>0.001214231249576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6070323333333333</v>
+        <v>2.141562333333333</v>
       </c>
       <c r="H6">
-        <v>1.821097</v>
+        <v>6.424687</v>
       </c>
       <c r="I6">
-        <v>0.07130431571931894</v>
+        <v>0.3883122414613532</v>
       </c>
       <c r="J6">
-        <v>0.07703371934434894</v>
+        <v>0.395304537763421</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.067773</v>
+        <v>1.994843666666667</v>
       </c>
       <c r="N6">
-        <v>3.203319</v>
+        <v>5.984531</v>
       </c>
       <c r="O6">
-        <v>0.09910750252307587</v>
+        <v>0.8759313262859122</v>
       </c>
       <c r="P6">
-        <v>0.09910750252307587</v>
+        <v>0.8759313262859124</v>
       </c>
       <c r="Q6">
-        <v>0.6481727356603333</v>
+        <v>4.27208205742189</v>
       </c>
       <c r="R6">
-        <v>5.833554620943</v>
+        <v>38.44873851679701</v>
       </c>
       <c r="S6">
-        <v>0.007066792650058601</v>
+        <v>0.3401348566762985</v>
       </c>
       <c r="T6">
-        <v>0.007634619534281981</v>
+        <v>0.3462596280499529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6070323333333333</v>
+        <v>2.141562333333333</v>
       </c>
       <c r="H7">
-        <v>1.821097</v>
+        <v>6.424687</v>
       </c>
       <c r="I7">
-        <v>0.07130431571931894</v>
+        <v>0.3883122414613532</v>
       </c>
       <c r="J7">
-        <v>0.07703371934434894</v>
+        <v>0.395304537763421</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,33 +868,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>9.706113666666665</v>
+        <v>0.2755583333333333</v>
       </c>
       <c r="N7">
-        <v>29.118341</v>
+        <v>0.826675</v>
       </c>
       <c r="O7">
-        <v>0.900892497476924</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="P7">
-        <v>0.9008924974769242</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="Q7">
-        <v>5.891924826675221</v>
+        <v>0.5901253473027778</v>
       </c>
       <c r="R7">
-        <v>53.02732344007699</v>
+        <v>5.311128125725001</v>
       </c>
       <c r="S7">
-        <v>0.06423752306926034</v>
+        <v>0.04698463131745479</v>
       </c>
       <c r="T7">
-        <v>0.06939909981006696</v>
+        <v>0.04783067846389213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.8995285</v>
+        <v>1.198100666666667</v>
       </c>
       <c r="H8">
-        <v>3.799057</v>
+        <v>3.594302</v>
       </c>
       <c r="I8">
-        <v>0.2231258080407211</v>
+        <v>0.2172419397410372</v>
       </c>
       <c r="J8">
-        <v>0.1607028569654358</v>
+        <v>0.2211537917243501</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.067773</v>
+        <v>0.006995333333333333</v>
       </c>
       <c r="N8">
-        <v>3.203319</v>
+        <v>0.020986</v>
       </c>
       <c r="O8">
-        <v>0.09910750252307587</v>
+        <v>0.003071634989180631</v>
       </c>
       <c r="P8">
-        <v>0.09910750252307587</v>
+        <v>0.003071634989180632</v>
       </c>
       <c r="Q8">
-        <v>2.0282652450305</v>
+        <v>0.008381113530222223</v>
       </c>
       <c r="R8">
-        <v>12.169591470183</v>
+        <v>0.07543002177200001</v>
       </c>
       <c r="S8">
-        <v>0.02211344158335911</v>
+        <v>0.0006672879432260402</v>
       </c>
       <c r="T8">
-        <v>0.01592685880216743</v>
+        <v>0.0006793037246504798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.8995285</v>
+        <v>1.198100666666667</v>
       </c>
       <c r="H9">
-        <v>3.799057</v>
+        <v>3.594302</v>
       </c>
       <c r="I9">
-        <v>0.2231258080407211</v>
+        <v>0.2172419397410372</v>
       </c>
       <c r="J9">
-        <v>0.1607028569654358</v>
+        <v>0.2211537917243501</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>9.706113666666665</v>
+        <v>1.994843666666667</v>
       </c>
       <c r="N9">
-        <v>29.118341</v>
+        <v>5.984531</v>
       </c>
       <c r="O9">
-        <v>0.900892497476924</v>
+        <v>0.8759313262859122</v>
       </c>
       <c r="P9">
-        <v>0.9008924974769242</v>
+        <v>0.8759313262859124</v>
       </c>
       <c r="Q9">
-        <v>18.43703953407283</v>
+        <v>2.390023526929112</v>
       </c>
       <c r="R9">
-        <v>110.622237204437</v>
+        <v>21.510211742362</v>
       </c>
       <c r="S9">
-        <v>0.201012366457362</v>
+        <v>0.1902890204022909</v>
       </c>
       <c r="T9">
-        <v>0.1447759981632684</v>
+        <v>0.1937155340982684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.439091333333333</v>
+        <v>1.198100666666667</v>
       </c>
       <c r="H10">
-        <v>7.317273999999999</v>
+        <v>3.594302</v>
       </c>
       <c r="I10">
-        <v>0.286504900892574</v>
+        <v>0.2172419397410372</v>
       </c>
       <c r="J10">
-        <v>0.3095259789465918</v>
+        <v>0.2211537917243501</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.067773</v>
+        <v>0.2755583333333333</v>
       </c>
       <c r="N10">
-        <v>3.203319</v>
+        <v>0.826675</v>
       </c>
       <c r="O10">
-        <v>0.09910750252307587</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="P10">
-        <v>0.09910750252307587</v>
+        <v>0.120997038724907</v>
       </c>
       <c r="Q10">
-        <v>2.604395870267334</v>
+        <v>0.3301466228722222</v>
       </c>
       <c r="R10">
-        <v>23.439562832406</v>
+        <v>2.97131960585</v>
       </c>
       <c r="S10">
-        <v>0.02839478518808438</v>
+        <v>0.02628563139552019</v>
       </c>
       <c r="T10">
-        <v>0.03067634673940688</v>
+        <v>0.02675895390143121</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.292657</v>
+      </c>
+      <c r="H11">
+        <v>0.585314</v>
+      </c>
+      <c r="I11">
+        <v>0.05306513561642237</v>
+      </c>
+      <c r="J11">
+        <v>0.03601378249500076</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.006995333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.020986</v>
+      </c>
+      <c r="O11">
+        <v>0.003071634989180631</v>
+      </c>
+      <c r="P11">
+        <v>0.003071634989180632</v>
+      </c>
+      <c r="Q11">
+        <v>0.002047233267333333</v>
+      </c>
+      <c r="R11">
+        <v>0.012283399604</v>
+      </c>
+      <c r="S11">
+        <v>0.0001629967272650183</v>
+      </c>
+      <c r="T11">
+        <v>0.0001106211944043853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.292657</v>
+      </c>
+      <c r="H12">
+        <v>0.585314</v>
+      </c>
+      <c r="I12">
+        <v>0.05306513561642237</v>
+      </c>
+      <c r="J12">
+        <v>0.03601378249500076</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.994843666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.984531</v>
+      </c>
+      <c r="O12">
+        <v>0.8759313262859122</v>
+      </c>
+      <c r="P12">
+        <v>0.8759313262859124</v>
+      </c>
+      <c r="Q12">
+        <v>0.5838049629556668</v>
+      </c>
+      <c r="R12">
+        <v>3.502829777734001</v>
+      </c>
+      <c r="S12">
+        <v>0.04648141462003465</v>
+      </c>
+      <c r="T12">
+        <v>0.0315456002654184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.439091333333333</v>
-      </c>
-      <c r="H11">
-        <v>7.317273999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.286504900892574</v>
-      </c>
-      <c r="J11">
-        <v>0.3095259789465918</v>
-      </c>
-      <c r="K11">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.292657</v>
+      </c>
+      <c r="H13">
+        <v>0.585314</v>
+      </c>
+      <c r="I13">
+        <v>0.05306513561642237</v>
+      </c>
+      <c r="J13">
+        <v>0.03601378249500076</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M11">
-        <v>9.706113666666665</v>
-      </c>
-      <c r="N11">
-        <v>29.118341</v>
-      </c>
-      <c r="O11">
-        <v>0.900892497476924</v>
-      </c>
-      <c r="P11">
-        <v>0.9008924974769242</v>
-      </c>
-      <c r="Q11">
-        <v>23.67409772471488</v>
-      </c>
-      <c r="R11">
-        <v>213.066879522434</v>
-      </c>
-      <c r="S11">
-        <v>0.2581101157044896</v>
-      </c>
-      <c r="T11">
-        <v>0.2788496322071849</v>
+      <c r="M13">
+        <v>0.2755583333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.826675</v>
+      </c>
+      <c r="O13">
+        <v>0.120997038724907</v>
+      </c>
+      <c r="P13">
+        <v>0.120997038724907</v>
+      </c>
+      <c r="Q13">
+        <v>0.08064407515833334</v>
+      </c>
+      <c r="R13">
+        <v>0.48386445095</v>
+      </c>
+      <c r="S13">
+        <v>0.006420724269122699</v>
+      </c>
+      <c r="T13">
+        <v>0.004357561035177987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7183183333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.154955</v>
+      </c>
+      <c r="I14">
+        <v>0.1302468752638612</v>
+      </c>
+      <c r="J14">
+        <v>0.1325922165820643</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006995333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.020986</v>
+      </c>
+      <c r="O14">
+        <v>0.003071634989180631</v>
+      </c>
+      <c r="P14">
+        <v>0.003071634989180632</v>
+      </c>
+      <c r="Q14">
+        <v>0.005024876181111111</v>
+      </c>
+      <c r="R14">
+        <v>0.04522388563</v>
+      </c>
+      <c r="S14">
+        <v>0.0004000708592919212</v>
+      </c>
+      <c r="T14">
+        <v>0.000407274891746485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7183183333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.154955</v>
+      </c>
+      <c r="I15">
+        <v>0.1302468752638612</v>
+      </c>
+      <c r="J15">
+        <v>0.1325922165820643</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.994843666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.984531</v>
+      </c>
+      <c r="O15">
+        <v>0.8759313262859122</v>
+      </c>
+      <c r="P15">
+        <v>0.8759313262859124</v>
+      </c>
+      <c r="Q15">
+        <v>1.432932777900556</v>
+      </c>
+      <c r="R15">
+        <v>12.896395001105</v>
+      </c>
+      <c r="S15">
+        <v>0.1140873181944697</v>
+      </c>
+      <c r="T15">
+        <v>0.1161416761259165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7183183333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.154955</v>
+      </c>
+      <c r="I16">
+        <v>0.1302468752638612</v>
+      </c>
+      <c r="J16">
+        <v>0.1325922165820643</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2755583333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.826675</v>
+      </c>
+      <c r="O16">
+        <v>0.120997038724907</v>
+      </c>
+      <c r="P16">
+        <v>0.120997038724907</v>
+      </c>
+      <c r="Q16">
+        <v>0.1979386027361111</v>
+      </c>
+      <c r="R16">
+        <v>1.781447424625</v>
+      </c>
+      <c r="S16">
+        <v>0.01575948621009954</v>
+      </c>
+      <c r="T16">
+        <v>0.01604326556440129</v>
       </c>
     </row>
   </sheetData>
